--- a/flowchart.xlsx
+++ b/flowchart.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jiwon_save\Jiwon\Tech-Web-PJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\TIL\PJT\TechWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCB3C35-0F52-4A90-B876-A849F005BC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="3510" yWindow="4110" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,7 +104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +129,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -393,16 +406,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -421,15 +428,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -454,49 +452,67 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -778,11 +794,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -797,404 +813,404 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="27">
         <v>10</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="9">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28">
         <v>11</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="24"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3">
+      <c r="A5" s="22"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>4</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>5</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="1">
         <v>3</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="27"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="19"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="12" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="24"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="18"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="27"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="19"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="12" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="31"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="20"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="27"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="19"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="27"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="27"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="19"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="27"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="19"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="27"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="19"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="27"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="19"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="27"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="19"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="27"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="19"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="27"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="19"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="27"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="19"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="27"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="19"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="22"/>
+      <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="27"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="19"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="27"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="19"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="27"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="19"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="31"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="20"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="27"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="19"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="31"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
